--- a/doc/Flowchart.xlsx
+++ b/doc/Flowchart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18915" windowHeight="4980" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18915" windowHeight="4980"/>
   </bookViews>
   <sheets>
     <sheet name="MemoryMap" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t xml:space="preserve">     HIGH</t>
   </si>
@@ -107,6 +107,21 @@
   </si>
   <si>
     <t>End of Memory</t>
+  </si>
+  <si>
+    <t>0x00002000</t>
+  </si>
+  <si>
+    <t>0x00001FFFF</t>
+  </si>
+  <si>
+    <t>0x00003000</t>
+  </si>
+  <si>
+    <t>0x00002FFFF</t>
+  </si>
+  <si>
+    <t>0x00004FFFF</t>
   </si>
 </sst>
 </file>
@@ -2334,7 +2349,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2344,8 +2359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2440,7 +2455,9 @@
       <c r="G8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="I8" s="4" t="s">
         <v>11</v>
       </c>
@@ -2455,16 +2472,24 @@
       <c r="D9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="4"/>
+      <c r="G9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="I9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J9" s="18"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G10" s="6"/>
-      <c r="H10" s="4"/>
+      <c r="G10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="I10" s="4" t="s">
         <v>8</v>
       </c>
@@ -2502,7 +2527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G8:N36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="E13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
